--- a/temp/pages/StructureDefinition-ihe-sdc-ecc-Observation-quantity.xlsx
+++ b/temp/pages/StructureDefinition-ihe-sdc-ecc-Observation-quantity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-14T12:55:27-04:00</t>
+    <t>2021-10-14T13:09:30-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -69,7 +69,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>A Observation Profile meant to capture Question and Answer Sets from an IHE SDC Form. Questions shold be added as a code and the answer should be added as an appropriate data type. If the answer is a single select it should be added as a valueCodeableConcept. If a Question is a Multiselect then component may be used to list multiple answers</t>
+    <t>A Observation Profile meant to capture quantity Question and Answer Sets from an IHE SDC Form. Any answer that has a quantity datatype in IHE SDC, or any datatype requiring a UCUM unit should be represented using this profile which requires the Observation.valueQuantity</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/temp/pages/StructureDefinition-ihe-sdc-ecc-Observation-quantity.xlsx
+++ b/temp/pages/StructureDefinition-ihe-sdc-ecc-Observation-quantity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-14T14:08:49-04:00</t>
+    <t>2021-10-14T14:15:14-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
